--- a/khalidhmd projects.xlsx
+++ b/khalidhmd projects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalid\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template-express-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>complete template project</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>body data validation ???</t>
-  </si>
-  <si>
-    <t>add repo with async/await</t>
   </si>
 </sst>
 </file>
@@ -449,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +564,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,7 +617,7 @@
     </row>
     <row r="7" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -642,7 +639,7 @@
     </row>
     <row r="8" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -664,7 +661,7 @@
     </row>
     <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -686,7 +683,7 @@
     </row>
     <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -706,7 +703,7 @@
     </row>
     <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -726,7 +723,7 @@
     </row>
     <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -745,9 +742,6 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
